--- a/data/completed_fights.xlsx
+++ b/data/completed_fights.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,47 +434,197 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>R_KD</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>B_KD</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>R_SIG_STR.</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>B_SIG_STR.</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>R_SIG_STR_pct</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>B_SIG_STR_pct</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>R_TOTAL_STR.</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>B_TOTAL_STR.</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>R_TD</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>B_TD</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>R_TD_pct</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>B_TD_pct</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>R_SUB_ATT</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>B_SUB_ATT</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>R_REV</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>B_REV</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>R_CTRL</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>B_CTRL</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>R_HEAD</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>B_HEAD</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>R_BODY</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>B_BODY</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>R_LEG</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>B_LEG</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>R_DISTANCE</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>B_DISTANCE</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>R_CLINCH</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>B_CLINCH</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>R_GROUND</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>B_GROUND</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>win_by</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>last_round</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>last_round_time</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Referee</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Fight_type</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Winner</t>
         </is>
       </c>
     </row>
